--- a/biology/Zoologie/Callophrys_mossii/Callophrys_mossii.xlsx
+++ b/biology/Zoologie/Callophrys_mossii/Callophrys_mossii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callophrys mossii  est un insecte lépidoptère de la famille des Lycaenidae, de la sous-famille des Theclinae, du genre Callophrys.
 </t>
@@ -511,85 +523,90 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callophrys mossii nommé par William Henry Edwards en 1881. D'abord placé dans le genre Incisalia Scudder, 1871, il est maintenant placé par certains dans le genre Deciduphagus Johnson, 1992[1].
-Noms vernaculaires
-Il se nomme Moss' Elfin, Stonecrop Elfin, Early Elfin, Schryver's Elfin en anglais[2]
-Sous-espèce
-Callophrys mossii mosii
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys mossii nommé par William Henry Edwards en 1881. D'abord placé dans le genre Incisalia Scudder, 1871, il est maintenant placé par certains dans le genre Deciduphagus Johnson, 1992.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Moss' Elfin, Stonecrop Elfin, Early Elfin, Schryver's Elfin en anglais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Callophrys mossii mosii
 Callophrys mossii bayensis R. Brown, 1939, le San Bruno elfin.
 Callophrys mossii duodoroffi (dos Passos, 1940)
 Callophrys mossii hidakupa (Emmel &amp; Mattoon, 1998)
 Callophrys mossii schryveri (Cross, 1937)
-Callophrys mossii windi (Clench, 1943)[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Callophrys_mossii</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callophrys_mossii</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit papillon d'une envergure qui varie de 22 à 28 mm, qui présente un léger dimorphisme sexuel : le dessus du mâle est marron gris, alors qu'il est d'une couleur marron orangé chez la femelle, les deux avec une frange entrecoupée de barres foncées.
-Le revers est marron à marron violacé[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Callophrys_mossii</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callophrys_mossii</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-C'est la chrysalide qui hiverne[3].
-Il vole en une seule génération de mars à mai[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Crassulaceae, dont Sedum spathulifolium, Sedum lanceolatum[2],[3].
-</t>
+Callophrys mossii windi (Clench, 1943).</t>
         </is>
       </c>
     </row>
@@ -614,16 +631,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon d'une envergure qui varie de 22 à 28 mm, qui présente un léger dimorphisme sexuel : le dessus du mâle est marron gris, alors qu'il est d'une couleur marron orangé chez la femelle, les deux avec une frange entrecoupée de barres foncées.
+Le revers est marron à marron violacé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la chrysalide qui hiverne.
+Il vole en une seule génération de mars à mai.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Crassulaceae, dont Sedum spathulifolium, Sedum lanceolatum,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Callophrys mosii est présent sous forme de colonies isolées dans l'ouest de l'Amérique du Nord sur la côte Pacifique de la Colombie-Britannique à la Californie, et dans le Wyoming et le Colorado. Callophrys mossii bayensis est uniquement présent dans les montagnes de San Bruno en Californie.
-Biotope
-Il réside dans les forêts.
-Protection
-Callophrys mossii bayensis le San Bruno elfin, uniquement présent dans les montagnes de San Bruno en Californie, est déclaré en danger[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les forêts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_mossii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys mossii bayensis le San Bruno elfin, uniquement présent dans les montagnes de San Bruno en Californie, est déclaré en danger.
 </t>
         </is>
       </c>
